--- a/biology/Médecine/Péritonite_bactérienne_spontanée/Péritonite_bactérienne_spontanée.xlsx
+++ b/biology/Médecine/Péritonite_bactérienne_spontanée/Péritonite_bactérienne_spontanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+          <t>Péritonite_bactérienne_spontanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La péritonite bactérienne spontanée (PBS) est une infection du péritoine sans contamination abdominale qui survient spontanément chez des malades de cirrhose et des enfants affectés d'un syndrome néphrotique. Elle survient chez 10 à 30 % des patients hospitalisés pour ascite et peut provoquer une décompensation grave de la maladie hépatique, voire entrainer d'autres complications majeures, voire fatales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+          <t>Péritonite_bactérienne_spontanée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes peuvent comprendre de la fièvre, des frissons, des nausées, des vomissements, des douleurs abdominales et un malaise général.
 Les patients peuvent simplement se plaindre de douleurs abdominales et voir leur ascite s'aggraver.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+          <t>Péritonite_bactérienne_spontanée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic nécessite une paracentèse (prélèvement à l'aiguille du liquide d'ascite) et la confirmation se fait au laboratoire. Des leucocytes supérieurs à 500/mm³ ou des neutrophiles supérieurs à 250/mm³ confirment le diagnostic même si la numération formule sanguine et la CRP sont normales. 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+          <t>Péritonite_bactérienne_spontanée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antibiotiques
-Après confirmation du diagnostic, les patients doivent être hospitalisés pour une antibiothérapie par voie intraveineuse (le plus souvent céfotaxime 2 g IV toutes les 8 à 12 heures pendant au moins cinq jours ou ceftriaxone 2 g IV par 24 heures). Une paracentèse est parfois répétée à 48 heures pour contrôler l'évolution de l'infection. Une fois les patients guéris, la convalescence nécessite régulièrement une antibiothérapie prophylactique (ciprofloxacine 750 mg/semaine, norfloxacine 400 mg/24 h), aussi longtemps qu'ils ont encore une ascite.
-Albumine intraveineuse
-Un essai contrôlé randomisé a constaté que l'albumine par voie intraveineuse le jour de l'admission et à J+3 peut réduire l'insuffisance rénale. Ils reçoivent souvent ainsi de l'albumine par voie intraveineuse (1,5 g/kg de poids corporel le 1er jour, 1 g/kg le 3e). 
+          <t>Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après confirmation du diagnostic, les patients doivent être hospitalisés pour une antibiothérapie par voie intraveineuse (le plus souvent céfotaxime 2 g IV toutes les 8 à 12 heures pendant au moins cinq jours ou ceftriaxone 2 g IV par 24 heures). Une paracentèse est parfois répétée à 48 heures pour contrôler l'évolution de l'infection. Une fois les patients guéris, la convalescence nécessite régulièrement une antibiothérapie prophylactique (ciprofloxacine 750 mg/semaine, norfloxacine 400 mg/24 h), aussi longtemps qu'ils ont encore une ascite.
 </t>
         </is>
       </c>
@@ -591,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+          <t>Péritonite_bactérienne_spontanée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +625,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albumine intraveineuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un essai contrôlé randomisé a constaté que l'albumine par voie intraveineuse le jour de l'admission et à J+3 peut réduire l'insuffisance rénale. Ils reçoivent souvent ainsi de l'albumine par voie intraveineuse (1,5 g/kg de poids corporel le 1er jour, 1 g/kg le 3e). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Péritonite_bactérienne_spontanée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9ritonite_bact%C3%A9rienne_spontan%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prévention et dépistage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les patients cirrhotiques pourraient bénéficier systématiquement d'antibiotiques si :
 les protéines dans le liquide d'ascite sont inférieures à 1,0 g/dL ou la bilirubinémie est supérieure à 40 mg/L ;
